--- a/Задания по Экселю/Задания из Оформление таблиц/Задание_2.xlsx
+++ b/Задания по Экселю/Задания из Оформление таблиц/Задание_2.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal Computer\Desktop\SKGMI\MyPractice\Задания по Экселю\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D465218B-88FC-4DE7-B362-DDD5F2BF9042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{75F012DE-E820-4532-ADA8-511C08E08729}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Оформленный" sheetId="2" r:id="rId2"/>
+    <sheet name="Таблица" sheetId="1" r:id="rId1"/>
+    <sheet name="Таблица Вар. 1" sheetId="2" r:id="rId2"/>
+    <sheet name="_Таблица Вар.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Таблица Вар. 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Таблица Вар. 2 Верт-ый текст" sheetId="5" r:id="rId5"/>
+    <sheet name="Таблица Вар.3" sheetId="6" r:id="rId6"/>
+    <sheet name="Таблица Вар.3 Текст -90гр" sheetId="7" r:id="rId7"/>
+    <sheet name="Таблица вар. 4" sheetId="8" r:id="rId8"/>
+    <sheet name="Таблица вар. 4 текст 45гр" sheetId="9" r:id="rId9"/>
+    <sheet name="Таблица вар. 5" sheetId="10" r:id="rId10"/>
+    <sheet name="Таблица вар. 6" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="22">
   <si>
     <t>Дата</t>
   </si>
@@ -86,16 +89,47 @@
 процентов
 (в рублях)</t>
   </si>
+  <si>
+    <t>Ставка
+рефинансирования</t>
+  </si>
+  <si>
+    <t>Процентная
+      ставка</t>
+  </si>
+  <si>
+    <t>Кол-во дней
+займа</t>
+  </si>
+  <si>
+    <t>Ставка
+  рефинансирования</t>
+  </si>
+  <si>
+    <t>Начислено процентов 
+  (в рублях)</t>
+  </si>
+  <si>
+    <t>Кол-во дней
+  займа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Начислено процентов
+  (в рублях)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +147,74 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2609FF"/>
+      <name val="Courier"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFB86900"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00740E"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF2994"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF2994"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +227,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40E0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FFF52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1FF3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3737"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,11 +313,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,18 +371,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,6 +400,393 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="135"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="60"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,6 +794,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3737"/>
+      <color rgb="FFD00000"/>
+      <color rgb="FFFF2994"/>
+      <color rgb="FF2FFF52"/>
+      <color rgb="FF51E96A"/>
+      <color rgb="FFB86900"/>
+      <color rgb="FF00740E"/>
+      <color rgb="FF009612"/>
+      <color rgb="FFF1FF3B"/>
+      <color rgb="FF7A4600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -531,14 +1108,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14AA94-9760-4E92-95D9-74EDB91AA96B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -558,30 +1135,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -592,18 +1169,18 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -716,16 +1293,16 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="4">
         <v>1238</v>
       </c>
@@ -749,12 +1326,605 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E2E99E-A5D0-4C65-AFF1-32D7BA6B784F}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="114">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="114">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="126">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="115">
+        <v>200</v>
+      </c>
+      <c r="F3" s="115">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="115">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="116">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="115">
+        <v>500</v>
+      </c>
+      <c r="J3" s="126">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="114">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="114">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="126">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="127">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="115">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="115">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="115">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="116">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="115">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="126">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="114">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="114">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="126">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="127">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="115">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="115">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="115">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="116">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="115">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="126">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="114">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="114">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="126">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="127">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="115">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="115">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="115">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="116">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="115">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="126">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="114">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="114">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="126">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="127">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="115">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="115">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="115">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="116">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="115">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="126">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="114">
+        <v>36964</v>
+      </c>
+      <c r="B8" s="114">
+        <v>36999</v>
+      </c>
+      <c r="C8" s="126">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8" s="127">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="115">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="115">
+        <f>(E8*D8/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G8" s="115">
+        <f>H8*F8</f>
+        <v>7000</v>
+      </c>
+      <c r="H8" s="116">
+        <f>B8-A8</f>
+        <v>35</v>
+      </c>
+      <c r="I8" s="115">
+        <v>8000</v>
+      </c>
+      <c r="J8" s="126">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="115">
+        <f>SUM(I3:I8)</f>
+        <v>60500</v>
+      </c>
+      <c r="J9" s="126">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="140"/>
+      <c r="G1" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="133">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="133">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="134">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="134">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="135">
+        <v>200</v>
+      </c>
+      <c r="F3" s="136">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="136">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="131">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="131">
+        <v>500</v>
+      </c>
+      <c r="J3" s="134">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="133">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="133">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="134">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="134">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="135">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="136">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="136">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="131">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="131">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="134">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="133">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="133">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="134">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="134">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="135">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="136">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="136">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="131">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="131">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="134">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="133">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="133">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="134">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="134">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="135">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="136">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="136">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="131">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="131">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="134">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="133">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="133">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="134">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="134">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="135">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="136">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="136">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="131">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="131">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="134">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="138">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="134">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,52 +1939,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -826,25 +1996,25 @@
       <c r="C3" s="3">
         <v>0.24</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>200</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>(E3*D3/100)*100</f>
         <v>20</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>H3*F3</f>
         <v>1800</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <f>B3-A3</f>
         <v>90</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="10">
         <v>500</v>
       </c>
       <c r="J3" s="3">
@@ -861,25 +2031,25 @@
       <c r="C4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>9000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>(E4*D4/100)*100</f>
         <v>450</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>H4*F4</f>
         <v>24750</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <f>B4-A4</f>
         <v>55</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="10">
         <v>15000</v>
       </c>
       <c r="J4" s="3">
@@ -896,25 +2066,25 @@
       <c r="C5" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>6000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>(E5*D5/100)*100</f>
         <v>300</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>H5*F5</f>
         <v>9600</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <f>B5-A5</f>
         <v>32</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="10">
         <v>12000</v>
       </c>
       <c r="J5" s="3">
@@ -931,25 +2101,25 @@
       <c r="C6" s="3">
         <v>0.25</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.08</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>10000</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>(E6*D6/100)*100</f>
         <v>800</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f>H6*F6</f>
         <v>52000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <f>B6-A6</f>
         <v>65</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="10">
         <v>17000</v>
       </c>
       <c r="J6" s="3">
@@ -966,25 +2136,25 @@
       <c r="C7" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.05</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>4000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>(E7*D7/100)*100</f>
         <v>200</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>H7*F7</f>
         <v>7000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <f>B7-A7</f>
         <v>35</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="10">
         <v>8000</v>
       </c>
       <c r="J7" s="3">
@@ -992,16 +2162,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="4">
         <f>SUM(I3:I7)</f>
         <v>52500</v>
@@ -1026,4 +2196,1954 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="38">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>200</v>
+      </c>
+      <c r="F3" s="42">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="42">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="37">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="37">
+        <v>500</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="38">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="41">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="42">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="42">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="37">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="37">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="38">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="41">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="42">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="42">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="37">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="37">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="39">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="38">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="41">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="42">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="42">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="37">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="37">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="38">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="41">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="42">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="42">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="37">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="37">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="43">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="39">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="53">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="55">
+        <v>200</v>
+      </c>
+      <c r="F3" s="56">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="56">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="49">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="49">
+        <v>500</v>
+      </c>
+      <c r="J3" s="54">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="53">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="55">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="56">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="56">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="49">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="49">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="53">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="55">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="56">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="56">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="49">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="49">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="54">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="53">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="55">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="56">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="56">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="49">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="49">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="53">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="55">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="56">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="56">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="49">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="49">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="54">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="54">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="64">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="62">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="65">
+        <v>200</v>
+      </c>
+      <c r="F3" s="66">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="66">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="61">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="61">
+        <v>500</v>
+      </c>
+      <c r="J3" s="62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="64">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="65">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="66">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="66">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="61">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="61">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="64">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="65">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="66">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="66">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="61">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="61">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="62">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="64">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="62">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="65">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="66">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="66">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="61">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="61">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="64">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="65">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="66">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="66">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="61">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="61">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="63">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="62">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="87">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="88">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="89">
+        <v>200</v>
+      </c>
+      <c r="F3" s="90">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="90">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="83">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="83">
+        <v>500</v>
+      </c>
+      <c r="J3" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="87">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="87">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="89">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="90">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="90">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="83">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="83">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="88">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="87">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="87">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="89">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="90">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="90">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="83">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="83">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="88">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="87">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="88">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="89">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="90">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="90">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="83">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="83">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="87">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="90">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="90">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="83">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="83">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="88">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="92">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+    </row>
+    <row r="3" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="102">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="102">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="100">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="100">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="103">
+        <v>200</v>
+      </c>
+      <c r="F3" s="104">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="104">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="99">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="99">
+        <v>500</v>
+      </c>
+      <c r="J3" s="100">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="102">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="100">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="100">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="103">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="104">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="104">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="99">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="99">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="102">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="102">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="100">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="100">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="103">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="104">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="104">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="99">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="99">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="100">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="102">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="102">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="100">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="103">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="104">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="104">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="99">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="99">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="102">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="100">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="100">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="103">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="104">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="104">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="99">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="99">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="100">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="101">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="100">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="69">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="70">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="71">
+        <v>200</v>
+      </c>
+      <c r="F3" s="72">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="72">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="73">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="73">
+        <v>500</v>
+      </c>
+      <c r="J3" s="70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="69">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="71">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="72">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="72">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="73">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="73">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="69">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="71">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="72">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="72">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="73">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="73">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="70">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="69">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="70">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="71">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="72">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="72">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="73">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="73">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="70">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="69">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="71">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="72">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="72">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="73">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="73">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="70">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="70">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <v>38403</v>
+      </c>
+      <c r="B3" s="69">
+        <v>38493</v>
+      </c>
+      <c r="C3" s="70">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="71">
+        <v>200</v>
+      </c>
+      <c r="F3" s="72">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="72">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="73">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="73">
+        <v>500</v>
+      </c>
+      <c r="J3" s="70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
+        <v>38357</v>
+      </c>
+      <c r="B4" s="69">
+        <v>38412</v>
+      </c>
+      <c r="C4" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="71">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="72">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="72">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="73">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="73">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>38384</v>
+      </c>
+      <c r="B5" s="69">
+        <v>38416</v>
+      </c>
+      <c r="C5" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="71">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="72">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="72">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="73">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="73">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="70">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>38443</v>
+      </c>
+      <c r="B6" s="69">
+        <v>38508</v>
+      </c>
+      <c r="C6" s="70">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="70">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="71">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="72">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="72">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="73">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="73">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="70">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>38416</v>
+      </c>
+      <c r="B7" s="69">
+        <v>38451</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="71">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="72">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="72">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="73">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="73">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="70">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="70">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>